--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1777,10 +1789,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1824,28 +1836,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1870,28 +1882,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2136,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2183,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2229,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2425,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2460,28 +2472,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2702,10 +2714,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2749,28 +2761,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2795,28 +2807,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2875,10 +2887,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2922,28 +2934,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2968,28 +2980,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3135,10 +3147,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3182,28 +3194,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3228,28 +3240,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3337,10 +3349,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3384,28 +3396,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3430,28 +3442,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3539,10 +3551,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3586,28 +3598,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3632,28 +3644,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3828,10 +3840,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3875,28 +3887,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3921,28 +3933,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4129,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4176,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4222,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4377,10 +4389,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4424,28 +4436,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4470,28 +4482,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4608,10 +4620,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4655,28 +4667,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4701,28 +4713,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4822,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4869,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4915,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5012,10 +5024,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5059,28 +5071,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5105,28 +5117,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5214,10 +5226,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5261,28 +5273,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5307,28 +5319,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5445,10 +5457,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5492,28 +5504,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5538,28 +5550,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5705,10 +5717,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5752,28 +5764,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5798,28 +5810,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5936,10 +5948,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5983,28 +5995,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6029,28 +6041,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6167,10 +6179,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6214,28 +6226,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6260,28 +6272,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6369,10 +6381,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6416,28 +6428,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6462,28 +6474,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6571,10 +6583,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6618,28 +6630,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6664,28 +6676,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6744,10 +6756,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6791,28 +6803,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6837,28 +6849,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6946,10 +6958,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6993,28 +7005,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7039,28 +7051,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7148,10 +7160,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7195,28 +7207,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7241,28 +7253,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7350,10 +7362,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7397,28 +7409,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7443,28 +7455,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7523,10 +7535,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
